--- a/example/input/variables.xlsx
+++ b/example/input/variables.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia\Desktop\rename-and-encode-master\example\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
-    <sheet name="census" sheetId="1" r:id="rId1"/>
+    <sheet name="crime" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,156 +25,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>variable</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t>asian pacific</t>
-  </si>
-  <si>
-    <t>native american</t>
-  </si>
-  <si>
-    <t>other race</t>
-  </si>
-  <si>
-    <t>total population</t>
-  </si>
-  <si>
-    <t>census_1990</t>
-  </si>
-  <si>
-    <t>P145A001</t>
-  </si>
-  <si>
-    <r>
-      <t>P145</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P145C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P145F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001001</t>
-  </si>
-  <si>
-    <t>census_2000_lf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areakey</t>
-  </si>
-  <si>
-    <t>tract number</t>
-  </si>
-  <si>
-    <t>asian</t>
-  </si>
-  <si>
-    <t>pacific</t>
-  </si>
-  <si>
-    <t>P145D001</t>
-  </si>
-  <si>
-    <t>P145E001</t>
-  </si>
-  <si>
-    <t>popaspac</t>
-  </si>
-  <si>
-    <t>popblack</t>
-  </si>
-  <si>
-    <t>popnatam</t>
-  </si>
-  <si>
-    <t>popother</t>
-  </si>
-  <si>
-    <t>popwhite</t>
-  </si>
-  <si>
-    <t>totpop90</t>
-  </si>
-  <si>
-    <t>race_asian</t>
-  </si>
-  <si>
-    <t>race_pac</t>
-  </si>
-  <si>
-    <t>pop_aspac</t>
-  </si>
-  <si>
-    <t>pop_black</t>
-  </si>
-  <si>
-    <t>pop_natam</t>
-  </si>
-  <si>
-    <t>pop_other</t>
-  </si>
-  <si>
-    <t>pop_white</t>
+    <t>crime_rates</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>violentcrimerate</t>
+  </si>
+  <si>
+    <t>violent</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>murderandnonnegligentmanslaughte</t>
+  </si>
+  <si>
+    <t>Violent crime rate, per 100,000</t>
+  </si>
+  <si>
+    <t>Murder and nonnegligent manslaughter rate, per 100,000</t>
+  </si>
+  <si>
+    <t>rape</t>
+  </si>
+  <si>
+    <t>legacyraperate1</t>
+  </si>
+  <si>
+    <t>Legacy rape rate, per 100,000</t>
+  </si>
+  <si>
+    <t>propertycrimerate</t>
+  </si>
+  <si>
+    <t>Property crime rate, per 100,000</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>burglaryrate</t>
+  </si>
+  <si>
+    <t>Burglary rate, per 100,000</t>
+  </si>
+  <si>
+    <t>burglary</t>
+  </si>
+  <si>
+    <t>larcenytheftrate</t>
+  </si>
+  <si>
+    <t>Larceny theft rate, per 100,000</t>
+  </si>
+  <si>
+    <t>larceny</t>
+  </si>
+  <si>
+    <t>motorvehicletheftrate</t>
+  </si>
+  <si>
+    <t>Motor vehicle theft rate, per 100,000</t>
+  </si>
+  <si>
+    <t>vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -179,11 +119,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,13 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,149 +424,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -658,9 +556,9 @@
       <selection activeCell="A57" sqref="A57:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/example/input/variables.xlsx
+++ b/example/input/variables.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slhudson/Dropbox (MIT)/Research/Software/renameencode/example/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="378" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="378"/>
   </bookViews>
   <sheets>
-    <sheet name="population" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="population" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -77,32 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +108,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -122,159 +116,388 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>